--- a/Main/Compile_HomebrewData_Template.xlsx
+++ b/Main/Compile_HomebrewData_Template.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Protocol Name</t>
   </si>
@@ -23,6 +23,9 @@
     <t>Protocol Actions</t>
   </si>
   <si>
+    <t>Pack</t>
+  </si>
+  <si>
     <t>Creator Tag</t>
   </si>
   <si>
@@ -53,14 +56,23 @@
     <t>Auxiliary Text</t>
   </si>
   <si>
-    <t>v0.1</t>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>Persistent</t>
+  </si>
+  <si>
+    <t>Immediate</t>
+  </si>
+  <si>
+    <t>Auxiliary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -71,6 +83,12 @@
       <color theme="1"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="24.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font/>
   </fonts>
   <fills count="2">
     <fill>
@@ -80,9 +98,22 @@
       <patternFill patternType="lightGray"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border/>
     <border>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -104,21 +135,21 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
@@ -126,17 +157,42 @@
     <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" textRotation="90" vertical="bottom" wrapText="1"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="right" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="right" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="1"/>
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -361,7 +417,7 @@
     <col customWidth="1" min="1" max="1" width="15.75"/>
     <col customWidth="1" min="2" max="2" width="31.38"/>
     <col customWidth="1" min="3" max="3" width="25.13"/>
-    <col customWidth="1" min="4" max="4" width="14.38"/>
+    <col customWidth="1" min="4" max="5" width="14.38"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -377,12 +433,16 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -397,127 +457,158 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75" outlineLevelCol="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="6.5"/>
-    <col customWidth="1" min="2" max="2" width="20.5"/>
-    <col customWidth="1" min="3" max="3" width="5.13"/>
-    <col customWidth="1" min="4" max="4" width="18.88"/>
-    <col customWidth="1" min="5" max="5" width="28.25"/>
-    <col customWidth="1" min="6" max="6" width="18.88"/>
-    <col customWidth="1" min="7" max="7" width="28.25"/>
-    <col customWidth="1" min="8" max="8" width="18.88"/>
-    <col customWidth="1" min="9" max="9" width="28.25"/>
+    <col customWidth="1" min="1" max="1" width="5.5"/>
+    <col customWidth="1" min="2" max="2" width="6.5" outlineLevel="1"/>
+    <col customWidth="1" min="3" max="3" width="9.5" outlineLevel="1"/>
+    <col customWidth="1" min="4" max="4" width="5.13"/>
+    <col customWidth="1" min="5" max="5" width="5.5"/>
+    <col customWidth="1" min="6" max="7" width="27.0" outlineLevel="1"/>
+    <col customWidth="1" min="8" max="8" width="5.5"/>
+    <col customWidth="1" min="9" max="10" width="27.0" outlineLevel="1"/>
+    <col customWidth="1" min="11" max="11" width="5.5"/>
+    <col customWidth="1" min="12" max="13" width="27.0" outlineLevel="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="7"/>
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="7"/>
+      <c r="I1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="K1" s="7"/>
+      <c r="L1" s="8" t="s">
         <v>12</v>
       </c>
+      <c r="M1" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="9"/>
+      <c r="A2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="11"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
+      <c r="A3" s="18"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="13"/>
+      <c r="E3" s="18"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="19"/>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
+      <c r="A4" s="18"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="19"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="19"/>
+      <c r="M4" s="19"/>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
+      <c r="A5" s="18"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="18"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="18"/>
+      <c r="F6" s="19"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="7"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="18"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="16"/>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A2:A7"/>
+    <mergeCell ref="E2:E7"/>
+    <mergeCell ref="H2:H7"/>
+    <mergeCell ref="K2:K7"/>
+  </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>